--- a/Excels/data/2006.xlsx
+++ b/Excels/data/2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249AAA14-ED0E-46FD-A609-E467D0A5E1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6EA573-58D8-4A46-822E-AD85E9F2F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="168">
   <si>
     <t>Round</t>
   </si>
@@ -608,6 +608,12 @@
   </si>
   <si>
     <t>rider</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -675,16 +681,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -841,8 +850,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{E59B1B62-6869-4F70-9EC9-43A981024709}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -850,6 +859,7 @@
       <queryTableField id="5" name="No." tableColumnId="5"/>
       <queryTableField id="6" name="Rider" tableColumnId="6"/>
       <queryTableField id="7" name="Rounds" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -865,9 +875,9 @@
   <autoFilter ref="A1:D18" xr:uid="{4B7A3E7D-1A6B-4DBB-B381-BFD5BD2E9C48}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A1593DAB-FFF2-48A4-A0E2-C9CCEEFB79E2}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{F64202C4-E18F-4BAE-A3DB-4DA62FFAC410}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{7A1733B7-AD1C-4252-B569-DC42F9327878}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{65DD0BAB-39EA-422D-A676-DD4B0E1414A2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F64202C4-E18F-4BAE-A3DB-4DA62FFAC410}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{7A1733B7-AD1C-4252-B569-DC42F9327878}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{65DD0BAB-39EA-422D-A676-DD4B0E1414A2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,26 +888,26 @@
   <autoFilter ref="A1:V27" xr:uid="{88FEFD03-FB0B-4A4E-A0FD-DC20D86EC558}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{607CF643-C90A-43A3-9CFD-4A4814C88B56}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{4AA6E6AE-56F4-418B-9668-470CD9D0000F}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{61D0007F-FEE3-4BCB-9096-C8FE1AE4FE2B}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{3E6B5548-6749-42E2-A45D-9290ED881FEA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{9376633F-AAA9-40CB-B459-663D5FD73D03}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1AB650C0-B099-4CD8-8464-903005E79A33}" uniqueName="6" name="QAT" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{15ED5AE6-CCEE-44DF-A81D-F4A8BE9DBD42}" uniqueName="7" name="TUR" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{DF75647E-EE0C-4DEE-ACCF-76315E30E76C}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{A1031C95-7026-4820-ADB5-B9189F1FFBB1}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E94A86E6-E463-4EB4-AC35-368D80E99CC5}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{0DDA2E82-4010-42FA-9454-F0EE8578BADB}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{7B9E065A-1A8B-4FCB-BDE8-EFF8AE51338E}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{81B2934A-8A18-4F20-819A-A04BD37425BF}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{AC3DAB7D-58F0-49DC-AAAF-66AC27EF7D0A}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{24C8072C-4289-46CD-9892-D518C7DF37C3}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{C66F8916-6D2C-46E2-9555-95B54D50A4D3}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{ECF27C87-5448-4ECD-8873-0B8CA3ABF193}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{87F7B97E-BC87-4A59-83D6-85AAB465EBBC}" uniqueName="18" name="AUS" queryTableFieldId="18" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{3EA73CD7-ACC5-48DD-98F3-B6085B98A795}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{FACF9964-89BF-4540-B083-0F75AB02EDDC}" uniqueName="20" name="POR" queryTableFieldId="20" dataDxfId="1"/>
-    <tableColumn id="21" xr3:uid="{CDEFE37C-B1A9-4F78-833F-A3BEB0A54063}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{4AA6E6AE-56F4-418B-9668-470CD9D0000F}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{61D0007F-FEE3-4BCB-9096-C8FE1AE4FE2B}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{3E6B5548-6749-42E2-A45D-9290ED881FEA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{9376633F-AAA9-40CB-B459-663D5FD73D03}" uniqueName="5" name="ESP" queryTableFieldId="5" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{1AB650C0-B099-4CD8-8464-903005E79A33}" uniqueName="6" name="QAT" queryTableFieldId="6" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{15ED5AE6-CCEE-44DF-A81D-F4A8BE9DBD42}" uniqueName="7" name="TUR" queryTableFieldId="7" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{DF75647E-EE0C-4DEE-ACCF-76315E30E76C}" uniqueName="8" name="CHN" queryTableFieldId="8" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{A1031C95-7026-4820-ADB5-B9189F1FFBB1}" uniqueName="9" name="FRA" queryTableFieldId="9" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{E94A86E6-E463-4EB4-AC35-368D80E99CC5}" uniqueName="10" name="ITA" queryTableFieldId="10" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{0DDA2E82-4010-42FA-9454-F0EE8578BADB}" uniqueName="11" name="CAT" queryTableFieldId="11" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{7B9E065A-1A8B-4FCB-BDE8-EFF8AE51338E}" uniqueName="12" name="NED" queryTableFieldId="12" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{81B2934A-8A18-4F20-819A-A04BD37425BF}" uniqueName="13" name="GBR" queryTableFieldId="13" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{AC3DAB7D-58F0-49DC-AAAF-66AC27EF7D0A}" uniqueName="14" name="GER" queryTableFieldId="14" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{24C8072C-4289-46CD-9892-D518C7DF37C3}" uniqueName="15" name="USA" queryTableFieldId="15" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{C66F8916-6D2C-46E2-9555-95B54D50A4D3}" uniqueName="16" name="CZE" queryTableFieldId="16" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{ECF27C87-5448-4ECD-8873-0B8CA3ABF193}" uniqueName="17" name="MAL" queryTableFieldId="17" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{87F7B97E-BC87-4A59-83D6-85AAB465EBBC}" uniqueName="18" name="AUS" queryTableFieldId="18" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{3EA73CD7-ACC5-48DD-98F3-B6085B98A795}" uniqueName="19" name="JPN" queryTableFieldId="19" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{FACF9964-89BF-4540-B083-0F75AB02EDDC}" uniqueName="20" name="POR" queryTableFieldId="20" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{CDEFE37C-B1A9-4F78-833F-A3BEB0A54063}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="7"/>
     <tableColumn id="22" xr3:uid="{E61BFD82-3CDA-4B27-8524-2D3519B37F88}" uniqueName="22" name="Pts" queryTableFieldId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -905,16 +915,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA8E54C-0A2B-477C-9FB6-F56501D6AEBD}" name="Table_2" displayName="Table_2" ref="A1:G27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G27" xr:uid="{DEA8E54C-0A2B-477C-9FB6-F56501D6AEBD}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E0A48C2-E671-402C-83F1-B320855D1048}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{006C5526-6FA4-4BDB-A06F-972CF3C0E1E9}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{2FDA220A-5EAB-4D1D-834C-2B9389D19FD7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CA727DFC-E36A-49DD-A4A5-E107BE2A1277}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEA8E54C-0A2B-477C-9FB6-F56501D6AEBD}" name="Table_2" displayName="Table_2" ref="A1:H27" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H27" xr:uid="{DEA8E54C-0A2B-477C-9FB6-F56501D6AEBD}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6E0A48C2-E671-402C-83F1-B320855D1048}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{006C5526-6FA4-4BDB-A06F-972CF3C0E1E9}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2FDA220A-5EAB-4D1D-834C-2B9389D19FD7}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{CA727DFC-E36A-49DD-A4A5-E107BE2A1277}" uniqueName="4" name="Tyres" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{14533F81-399D-4E2B-B2E9-5322BA675A45}" uniqueName="5" name="No." queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F94771DA-8DE8-488B-8EA2-63227BCFA985}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{397254F8-50A7-4926-965B-FF6C43A48371}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F94771DA-8DE8-488B-8EA2-63227BCFA985}" uniqueName="6" name="Rider" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{397254F8-50A7-4926-965B-FF6C43A48371}" uniqueName="7" name="Rounds" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{86F7B8E7-254C-4309-9C0F-659DF2AD9A4B}" uniqueName="8" name="class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1249,13 +1260,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1263,13 +1274,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1277,13 +1288,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1291,13 +1302,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1305,13 +1316,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1319,13 +1330,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1333,13 +1344,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1347,13 +1358,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1361,13 +1372,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1375,13 +1386,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1389,13 +1400,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1403,13 +1414,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1417,13 +1428,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1431,13 +1442,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1445,13 +1456,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1459,13 +1470,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1473,13 +1484,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1596,64 +1607,64 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>151</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>148</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>148</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
         <v>146</v>
       </c>
       <c r="V2">
@@ -1664,64 +1675,64 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>146</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>147</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>147</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>155</v>
       </c>
       <c r="V3">
@@ -1732,64 +1743,64 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>107</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>148</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>147</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>150</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>147</v>
       </c>
       <c r="V4">
@@ -1800,64 +1811,64 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>149</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>156</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>157</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>150</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>148</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>90</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>149</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>154</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>148</v>
       </c>
       <c r="V5">
@@ -1868,64 +1879,64 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>149</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" t="s">
         <v>146</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>151</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>107</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>150</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="T6" t="s">
+        <v>152</v>
+      </c>
+      <c r="U6" t="s">
         <v>151</v>
       </c>
       <c r="V6">
@@ -1936,64 +1947,64 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" t="s">
         <v>154</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" t="s">
         <v>151</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>150</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>146</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>154</v>
       </c>
       <c r="V7">
@@ -2004,64 +2015,64 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>156</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>158</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>148</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>155</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>158</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>159</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>151</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>90</v>
       </c>
       <c r="V8">
@@ -2072,64 +2083,64 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="J9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>157</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>156</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="S9" t="s">
+        <v>152</v>
+      </c>
+      <c r="T9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" t="s">
         <v>152</v>
       </c>
       <c r="V9">
@@ -2140,62 +2151,61 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>150</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" t="s">
         <v>161</v>
       </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>160</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>107</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>160</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" t="s">
         <v>90</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" t="s">
         <v>156</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>149</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>156</v>
       </c>
       <c r="V10">
@@ -2206,64 +2216,64 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>154</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>159</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>156</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>158</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>158</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>160</v>
       </c>
       <c r="V11">
@@ -2274,64 +2284,64 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>156</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>159</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>162</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>150</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>148</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>158</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>160</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>147</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>160</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>152</v>
       </c>
       <c r="V12">
@@ -2342,64 +2352,64 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>150</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>160</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
         <v>160</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>155</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>153</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>148</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>158</v>
       </c>
       <c r="V13">
@@ -2410,58 +2420,54 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>160</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>90</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>148</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>157</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>159</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>148</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>151</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>151</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U14" s="1"/>
+      <c r="T14" t="s">
+        <v>152</v>
+      </c>
       <c r="V14">
         <v>95</v>
       </c>
@@ -2470,64 +2476,64 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>152</v>
+      </c>
+      <c r="N15" t="s">
         <v>156</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" t="s">
+        <v>152</v>
+      </c>
+      <c r="P15" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="Q15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R15" t="s">
         <v>154</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="S15" t="s">
+        <v>152</v>
+      </c>
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" t="s">
         <v>150</v>
       </c>
       <c r="V15">
@@ -2538,64 +2544,64 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>153</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>159</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>158</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="R16" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" t="s">
         <v>153</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>150</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>159</v>
       </c>
       <c r="V16">
@@ -2606,64 +2612,64 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
         <v>155</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
         <v>153</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>158</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="1" t="s">
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>155</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>160</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="S17" t="s">
+        <v>152</v>
+      </c>
+      <c r="T17" t="s">
         <v>159</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>152</v>
       </c>
       <c r="V17">
@@ -2674,58 +2680,55 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="1" t="s">
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
         <v>153</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>155</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>162</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>160</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
         <v>152</v>
       </c>
       <c r="V18">
@@ -2736,38 +2739,24 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>158</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>162</v>
       </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
       <c r="V19">
         <v>30</v>
       </c>
@@ -2776,64 +2765,64 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>162</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>162</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="L20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" t="s">
         <v>153</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>155</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>162</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>162</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" t="s">
         <v>107</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>155</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>153</v>
       </c>
       <c r="V20">
@@ -2844,32 +2833,16 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
+      <c r="U21" t="s">
         <v>149</v>
       </c>
       <c r="V21">
@@ -2880,64 +2853,64 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>162</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="P22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>71</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="S22" t="s">
+        <v>152</v>
+      </c>
+      <c r="T22" t="s">
         <v>153</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
         <v>152</v>
       </c>
       <c r="V22">
@@ -2948,34 +2921,18 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="S23" t="s">
         <v>155</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
       <c r="V23">
         <v>3</v>
       </c>
@@ -2984,34 +2941,19 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
+      <c r="T24" t="s">
         <v>107</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="U24" t="s">
         <v>107</v>
       </c>
       <c r="V24">
@@ -3019,104 +2961,58 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>162</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1" t="s">
+      <c r="M25" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" t="s">
         <v>164</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
       <c r="V25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="S26" t="s">
+        <v>152</v>
+      </c>
       <c r="V26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>161</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
       <c r="V27">
         <v>0</v>
       </c>
@@ -3131,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE60106-7C4D-4FFB-95ED-E6630CB62279}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,7 +3044,7 @@
     <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -3170,603 +3066,684 @@
       <c r="G1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
       <c r="E3">
         <v>66</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
       <c r="E5">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>76</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7">
         <v>66</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="E8">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>83</v>
       </c>
       <c r="E9">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>83</v>
       </c>
       <c r="E10">
         <v>69</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>83</v>
       </c>
       <c r="E11">
         <v>24</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>83</v>
       </c>
       <c r="E12">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13">
         <v>33</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>83</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
       <c r="E15">
         <v>27</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>83</v>
       </c>
       <c r="E16">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>65</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
       <c r="E18">
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>65</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
       <c r="E21">
         <v>21</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>65</v>
       </c>
       <c r="E22">
         <v>71</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>65</v>
       </c>
       <c r="E23">
         <v>64</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
       <c r="E25">
         <v>46</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>122</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="H25" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>76</v>
       </c>
       <c r="E26">
         <v>7</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>76</v>
       </c>
       <c r="E27">
         <v>77</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>73</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +3758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCFDF3-2087-4321-AD50-834E5824BFF6}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -3871,1306 +3848,1306 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="O8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q8" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="P9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" s="2">
         <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="Q12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="R12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" s="1">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="2">
+      <c r="Q14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="1">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="5" t="s">
+      <c r="L15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O15" s="5" t="s">
+      <c r="N15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R15" s="5" t="s">
+      <c r="P15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="P17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="R17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="4" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="P18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="Q18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S18" s="2">
+      <c r="R18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="3">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="O20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="P20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="Q20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="R20" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+      <c r="P22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="2">
+      <c r="R22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="3">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5" t="s">
+      <c r="J25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="3">
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Excels/data/2006.xlsx
+++ b/Excels/data/2006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF0930-38B4-4538-826E-CDC48F4AE245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19900F96-5729-4CA2-98AB-10F77E60FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18075" windowHeight="12255" tabRatio="871" firstSheet="1" activeTab="3" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="871" firstSheet="1" activeTab="9" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5530" uniqueCount="559">
   <si>
     <t>Round</t>
   </si>
@@ -1895,6 +1895,9 @@
   </si>
   <si>
     <t>250cc</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1969,8 +1972,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3157,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65C4E11-521C-4B4E-AA03-16AC09AD8815}">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3171,7 @@
       <c r="A1" t="s">
         <v>554</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C1">
@@ -3253,7 +3254,7 @@
       <c r="A2" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3309,7 +3310,7 @@
       <c r="A3" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3365,7 +3366,7 @@
       <c r="A4" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3421,7 +3422,7 @@
       <c r="A5" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3477,7 +3478,7 @@
       <c r="A6" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3533,7 +3534,7 @@
       <c r="A7" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3589,7 +3590,7 @@
       <c r="A8" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3645,7 +3646,7 @@
       <c r="A9" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -3701,7 +3702,7 @@
       <c r="A10" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3751,7 +3752,7 @@
       <c r="A11" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -3807,7 +3808,7 @@
       <c r="A12" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3863,7 +3864,7 @@
       <c r="A13" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3919,7 +3920,7 @@
       <c r="A14" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -3973,7 +3974,7 @@
       <c r="A15" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4029,7 +4030,7 @@
       <c r="A16" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -4079,9 +4080,9 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4137,7 +4138,7 @@
       <c r="A18" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -4193,7 +4194,7 @@
       <c r="A19" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -4239,7 +4240,7 @@
       <c r="A20" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -4293,7 +4294,7 @@
       <c r="A21" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C21" s="4"/>
@@ -4331,7 +4332,7 @@
       <c r="A22" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -4387,7 +4388,7 @@
       <c r="A23" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4433,7 +4434,7 @@
       <c r="A24" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4479,7 +4480,7 @@
       <c r="A25" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4535,7 +4536,7 @@
       <c r="A26" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -4587,7 +4588,7 @@
       <c r="A27" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -4635,7 +4636,7 @@
       <c r="A28" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -4691,7 +4692,7 @@
       <c r="A29" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -4717,7 +4718,7 @@
       <c r="A30" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C30" s="3"/>
@@ -4771,7 +4772,7 @@
       <c r="A31" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C31" s="4"/>
@@ -4797,7 +4798,7 @@
       <c r="A32" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C32" s="3"/>
@@ -4825,7 +4826,7 @@
       <c r="A33" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C33" s="4"/>
@@ -4857,7 +4858,7 @@
       <c r="A34" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C34" s="3"/>
@@ -4889,7 +4890,7 @@
       <c r="A35" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4927,7 +4928,7 @@
       <c r="A36" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -4981,7 +4982,7 @@
       <c r="A37" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5029,7 +5030,7 @@
       <c r="A38" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -5085,7 +5086,7 @@
       <c r="A39" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -5141,7 +5142,7 @@
       <c r="A40" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -5193,7 +5194,7 @@
       <c r="A41" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -5249,7 +5250,7 @@
       <c r="A42" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C42" s="3"/>
@@ -5297,7 +5298,7 @@
       <c r="A43" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -5353,7 +5354,7 @@
       <c r="A44" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -5397,7 +5398,7 @@
       <c r="A45" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C45" s="4"/>
@@ -5427,7 +5428,7 @@
       <c r="A46" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C46" s="3"/>
@@ -5453,7 +5454,7 @@
       <c r="A47" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -5509,7 +5510,7 @@
       <c r="A48" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -5555,7 +5556,7 @@
       <c r="A49" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C49" s="4"/>
@@ -5585,7 +5586,7 @@
       <c r="A50" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C50" s="3"/>
@@ -5611,7 +5612,7 @@
       <c r="A51" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C51" s="4"/>
@@ -5645,7 +5646,7 @@
       <c r="A52" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C52" s="3"/>
@@ -5671,7 +5672,7 @@
       <c r="A53" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C53" s="4"/>
@@ -5723,7 +5724,7 @@
       <c r="A54" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C54" s="3"/>
@@ -5749,7 +5750,7 @@
       <c r="A55" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C55" s="4"/>
@@ -5781,7 +5782,7 @@
       <c r="A56" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C56" s="3"/>
@@ -5807,7 +5808,7 @@
       <c r="A57" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -5843,7 +5844,7 @@
       <c r="A58" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -5869,7 +5870,7 @@
       <c r="A59" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C59" s="4"/>
@@ -5897,7 +5898,7 @@
       <c r="A60" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C60" s="3"/>
@@ -5923,7 +5924,7 @@
       <c r="A61" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C61" s="4"/>
@@ -5949,7 +5950,7 @@
       <c r="A62" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C62" s="3"/>
@@ -5979,7 +5980,7 @@
       <c r="A63" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C63" s="4"/>
@@ -6005,7 +6006,7 @@
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C64" s="3"/>
@@ -6033,7 +6034,7 @@
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C65" s="4"/>
@@ -6061,7 +6062,7 @@
       <c r="A66" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C66" s="3"/>
@@ -6087,7 +6088,7 @@
       <c r="A67" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C67" s="4"/>
@@ -6113,7 +6114,7 @@
       <c r="A68" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C68" s="3"/>
@@ -6139,7 +6140,7 @@
       <c r="A69" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C69" s="4"/>
@@ -6165,7 +6166,7 @@
       <c r="A70" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C70" s="3"/>
@@ -6191,7 +6192,7 @@
       <c r="A71" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -6219,7 +6220,7 @@
       <c r="A72" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C72" s="3"/>
@@ -6245,7 +6246,7 @@
       <c r="A73" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C73" s="4"/>
@@ -6271,7 +6272,7 @@
       <c r="A74" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C74" s="3"/>
@@ -6297,7 +6298,7 @@
       <c r="A75" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C75" s="4"/>
@@ -6323,7 +6324,7 @@
       <c r="A76" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C76" s="3"/>
@@ -6349,7 +6350,7 @@
       <c r="A77" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C77" s="4"/>
@@ -6375,7 +6376,7 @@
       <c r="A78" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C78" s="3"/>
@@ -6401,7 +6402,7 @@
       <c r="A79" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C79" s="4"/>
@@ -6431,7 +6432,7 @@
       <c r="A80" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -6459,7 +6460,7 @@
       <c r="A81" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C81" s="4"/>
@@ -6485,7 +6486,7 @@
       <c r="A82" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C82" s="3"/>
@@ -6511,7 +6512,7 @@
       <c r="A83" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C83" s="4"/>
@@ -6537,7 +6538,7 @@
       <c r="A84" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C84" s="3"/>
@@ -6563,7 +6564,7 @@
       <c r="A85" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C85" s="4"/>
@@ -6589,7 +6590,7 @@
       <c r="A86" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C86" s="3"/>
@@ -6615,7 +6616,7 @@
       <c r="A87" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C87" s="4"/>
@@ -6641,7 +6642,7 @@
       <c r="A88" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C88" s="3"/>
@@ -6667,7 +6668,7 @@
       <c r="A89" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C89" s="4"/>
@@ -6693,7 +6694,7 @@
       <c r="A90" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C90" s="3"/>
@@ -6719,7 +6720,7 @@
       <c r="A91" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C91" s="4"/>
@@ -6745,7 +6746,7 @@
       <c r="A92" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C92" s="3"/>
@@ -6771,7 +6772,7 @@
       <c r="A93" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C93" s="4"/>
@@ -6797,7 +6798,7 @@
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C94" s="3"/>
@@ -6823,7 +6824,7 @@
       <c r="A95" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C95" s="4"/>
@@ -6846,37 +6847,37 @@
       <c r="R95" s="4"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="2" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="2" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="2" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="1" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="2" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9141,7 +9142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CCFDF3-2087-4321-AD50-834E5824BFF6}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -21019,7 +21020,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H103"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22194,7 +22195,7 @@
         <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>558</v>
       </c>
       <c r="G45" t="s">
         <v>172</v>

--- a/Excels/data/2006.xlsx
+++ b/Excels/data/2006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19900F96-5729-4CA2-98AB-10F77E60FB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796007D7-B281-4AE8-BB91-E4A702DD5A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="871" firstSheet="1" activeTab="9" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="871" firstSheet="2" activeTab="9" xr2:uid="{5594292E-C3E6-4C85-A252-B032F651B054}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2883,7 +2883,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3158,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65C4E11-521C-4B4E-AA03-16AC09AD8815}">
   <dimension ref="A1:AA102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,9 +3287,6 @@
       <c r="L2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="N2" s="3" t="s">
         <v>149</v>
       </c>
@@ -3297,12 +3294,15 @@
         <v>149</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3343,9 +3343,6 @@
       <c r="L3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="N3" s="4" t="s">
         <v>147</v>
       </c>
@@ -3353,12 +3350,15 @@
         <v>147</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       <c r="L4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3455,22 +3455,22 @@
       <c r="L5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3511,22 +3511,22 @@
       <c r="L6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3567,22 +3567,22 @@
       <c r="L7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3623,22 +3623,22 @@
       <c r="L8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>90</v>
       </c>
       <c r="Q8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3679,22 +3679,22 @@
       <c r="L9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="Q9" s="4" t="s">
         <v>152</v>
       </c>
       <c r="R9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3729,22 +3729,22 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3785,22 +3785,22 @@
       <c r="L11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="Q11" s="4" t="s">
         <v>152</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>496</v>
       </c>
     </row>
@@ -3841,22 +3841,22 @@
       <c r="L12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3897,22 +3897,22 @@
       <c r="L13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="N13" s="4" t="s">
         <v>107</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>504</v>
       </c>
     </row>
@@ -3953,20 +3953,20 @@
       <c r="L14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4007,22 +4007,22 @@
       <c r="L15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="N15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4059,26 +4059,26 @@
       <c r="L16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>558</v>
       </c>
@@ -4115,26 +4115,26 @@
       <c r="L17" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N17" s="4" t="s">
         <v>152</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="Q17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>323</v>
       </c>
@@ -4171,26 +4171,26 @@
       <c r="L18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>153</v>
       </c>
       <c r="Q18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>358</v>
       </c>
@@ -4227,16 +4227,16 @@
       <c r="L19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>406</v>
       </c>
@@ -4273,24 +4273,24 @@
       <c r="L20" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="3"/>
+      <c r="P20" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="R20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>401</v>
       </c>
@@ -4309,26 +4309,26 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="R21" s="4" t="s">
+      <c r="S21" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>342</v>
       </c>
@@ -4365,26 +4365,26 @@
       <c r="L22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>152</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="Q22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>372</v>
       </c>
@@ -4421,16 +4421,16 @@
       <c r="L23" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4" t="s">
+      <c r="N23" s="4"/>
+      <c r="O23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>403</v>
       </c>
@@ -4457,26 +4457,26 @@
       <c r="L24" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="P24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>410</v>
       </c>
@@ -4513,26 +4513,26 @@
       <c r="L25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>415</v>
       </c>
@@ -4567,24 +4567,24 @@
         <v>162</v>
       </c>
       <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>347</v>
       </c>
@@ -4621,18 +4621,18 @@
       <c r="L27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>327</v>
       </c>
@@ -4669,26 +4669,26 @@
       <c r="L28" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="P28" s="3" t="s">
         <v>152</v>
       </c>
       <c r="Q28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>409</v>
       </c>
@@ -4707,14 +4707,14 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>409</v>
       </c>
@@ -4749,26 +4749,26 @@
       <c r="L30" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="O30" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="P30" s="3" t="s">
-        <v>510</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>510</v>
       </c>
       <c r="R30" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>338</v>
       </c>
@@ -4787,14 +4787,14 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>338</v>
       </c>
@@ -4815,14 +4815,14 @@
         <v>519</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>338</v>
       </c>
@@ -4839,22 +4839,22 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
       <c r="N33" s="4"/>
-      <c r="O33" s="4" t="s">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q33" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>353</v>
       </c>
@@ -4875,18 +4875,18 @@
       <c r="L34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3" t="s">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>213</v>
       </c>
@@ -4917,14 +4917,14 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>345</v>
       </c>
@@ -4959,26 +4959,26 @@
         <v>164</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>496</v>
       </c>
       <c r="P36" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q36" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="Q36" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="R36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S36" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>386</v>
       </c>
@@ -5013,20 +5013,20 @@
       <c r="L37" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
-      <c r="Q37" s="4" t="s">
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="R37" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>400</v>
       </c>
@@ -5063,26 +5063,26 @@
       <c r="L38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="Q38" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q38" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="R38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>391</v>
       </c>
@@ -5119,26 +5119,26 @@
       <c r="L39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="N39" s="4" t="s">
+      <c r="O39" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="O39" s="4" t="s">
+      <c r="P39" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="P39" s="4" t="s">
+      <c r="Q39" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="Q39" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S39" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>396</v>
       </c>
@@ -5175,22 +5175,22 @@
       <c r="L40" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>375</v>
       </c>
@@ -5227,26 +5227,26 @@
       <c r="L41" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="N41" s="4" t="s">
+      <c r="O41" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="O41" s="4" t="s">
+      <c r="P41" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P41" s="4" t="s">
+      <c r="Q41" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="R41" s="4" t="s">
+      <c r="S41" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>365</v>
       </c>
@@ -5281,20 +5281,20 @@
       <c r="L42" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>412</v>
       </c>
@@ -5331,26 +5331,26 @@
       <c r="L43" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="N43" s="4" t="s">
+      <c r="O43" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="P43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="R43" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="R43" s="4" t="s">
+      <c r="S43" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>367</v>
       </c>
@@ -5387,14 +5387,14 @@
       <c r="L44" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="3"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>340</v>
       </c>
@@ -5415,16 +5415,16 @@
       <c r="L45" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
-      <c r="Q45" s="4" t="s">
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>340</v>
       </c>
@@ -5443,14 +5443,14 @@
         <v>527</v>
       </c>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>405</v>
       </c>
@@ -5487,26 +5487,26 @@
       <c r="L47" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="O47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="P47" s="4" t="s">
+      <c r="Q47" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>331</v>
       </c>
@@ -5541,18 +5541,18 @@
       <c r="L48" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>369</v>
       </c>
@@ -5569,20 +5569,20 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="P49" s="4"/>
       <c r="Q49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R49" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="R49" s="4" t="s">
+      <c r="S49" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>362</v>
       </c>
@@ -5601,14 +5601,14 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="3"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>362</v>
       </c>
@@ -5625,24 +5625,24 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4" t="s">
+      <c r="N51" s="4"/>
+      <c r="O51" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="O51" s="4" t="s">
+      <c r="P51" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="Q51" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="Q51" s="4" t="s">
+      <c r="R51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="R51" s="4" t="s">
+      <c r="S51" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>477</v>
       </c>
@@ -5661,14 +5661,14 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>360</v>
       </c>
@@ -5701,26 +5701,26 @@
       <c r="L53" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="N53" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="O53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="P53" s="4" t="s">
+      <c r="Q53" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="Q53" s="4" t="s">
+      <c r="R53" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="R53" s="4" t="s">
+      <c r="S53" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>349</v>
       </c>
@@ -5739,14 +5739,14 @@
         <v>518</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>349</v>
       </c>
@@ -5763,22 +5763,22 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
-      <c r="O55" s="4" t="s">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="P55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="Q55" s="4" t="s">
+      <c r="R55" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="R55" s="4" t="s">
+      <c r="S55" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>480</v>
       </c>
@@ -5797,14 +5797,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>460</v>
       </c>
@@ -5829,18 +5829,18 @@
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R57" s="4"/>
+      <c r="S57" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>373</v>
       </c>
@@ -5859,14 +5859,14 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>395</v>
       </c>
@@ -5883,18 +5883,18 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="4" t="s">
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="R59" s="4" t="s">
+      <c r="S59" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>420</v>
       </c>
@@ -5911,16 +5911,16 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>464</v>
       </c>
@@ -5937,16 +5937,16 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4" t="s">
+      <c r="N61" s="4"/>
+      <c r="O61" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>413</v>
       </c>
@@ -5967,16 +5967,16 @@
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>426</v>
       </c>
@@ -5993,16 +5993,16 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="4" t="s">
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>336</v>
       </c>
@@ -6019,18 +6019,18 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="P64" s="3"/>
       <c r="Q64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R64" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>448</v>
       </c>
@@ -6047,18 +6047,18 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
-      <c r="Q65" s="4" t="s">
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>424</v>
       </c>
@@ -6075,16 +6075,16 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="3" t="s">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>446</v>
       </c>
@@ -6101,16 +6101,16 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>443</v>
       </c>
@@ -6129,14 +6129,14 @@
         <v>516</v>
       </c>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>428</v>
       </c>
@@ -6153,16 +6153,16 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="4" t="s">
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>473</v>
       </c>
@@ -6181,14 +6181,14 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>457</v>
       </c>
@@ -6207,16 +6207,16 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
-      <c r="R71" s="4" t="s">
+      <c r="R71" s="4"/>
+      <c r="S71" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>451</v>
       </c>
@@ -6233,16 +6233,16 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3" t="s">
+      <c r="N72" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>490</v>
       </c>
@@ -6261,14 +6261,14 @@
       <c r="L73" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>370</v>
       </c>
@@ -6285,16 +6285,16 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-      <c r="M74" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="3"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>442</v>
       </c>
@@ -6313,14 +6313,14 @@
         <v>524</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="4"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>484</v>
       </c>
@@ -6339,14 +6339,14 @@
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="3"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>333</v>
       </c>
@@ -6365,14 +6365,14 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>333</v>
       </c>
@@ -6389,16 +6389,16 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="3" t="s">
+      <c r="R78" s="3"/>
+      <c r="S78" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>417</v>
       </c>
@@ -6419,16 +6419,16 @@
       <c r="L79" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
-      <c r="R79" s="4" t="s">
+      <c r="R79" s="4"/>
+      <c r="S79" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>455</v>
       </c>
@@ -6449,14 +6449,14 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="3"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>422</v>
       </c>
@@ -6473,16 +6473,16 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="R81" s="4"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="4"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>436</v>
       </c>
@@ -6499,16 +6499,16 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>430</v>
       </c>
@@ -6527,14 +6527,14 @@
       <c r="L83" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>453</v>
       </c>
@@ -6553,14 +6553,14 @@
       <c r="L84" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="3"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>444</v>
       </c>
@@ -6579,14 +6579,14 @@
         <v>152</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>440</v>
       </c>
@@ -6605,14 +6605,14 @@
         <v>152</v>
       </c>
       <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="3"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>482</v>
       </c>
@@ -6631,14 +6631,14 @@
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>468</v>
       </c>
@@ -6657,14 +6657,14 @@
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" s="3"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>475</v>
       </c>
@@ -6683,14 +6683,14 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" s="4"/>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>488</v>
       </c>
@@ -6709,14 +6709,14 @@
       <c r="L90" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>471</v>
       </c>
@@ -6735,14 +6735,14 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" s="4"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>434</v>
       </c>
@@ -6759,16 +6759,16 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="3" t="s">
+      <c r="O92" s="3"/>
+      <c r="P92" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" s="3"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>432</v>
       </c>
@@ -6785,16 +6785,16 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
-      <c r="O93" s="4" t="s">
+      <c r="O93" s="4"/>
+      <c r="P93" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" s="4"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>438</v>
       </c>
@@ -6811,16 +6811,16 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3"/>
+      <c r="P94" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" s="3"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>408</v>
       </c>
@@ -6839,14 +6839,14 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" s="4"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>556</v>
       </c>
@@ -10625,8 +10625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADDB044-4998-4848-A0BB-5D6E7C903DE0}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S72"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15019,8 +15019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5687A505-F17C-4A06-9C43-76AF413FFDB1}">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15148,9 +15148,6 @@
       <c r="L2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="N2" s="3" t="s">
         <v>149</v>
       </c>
@@ -15158,12 +15155,15 @@
         <v>149</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -15204,22 +15204,22 @@
       <c r="L3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="N3" s="4" t="s">
         <v>147</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>151</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -15260,22 +15260,22 @@
       <c r="L4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>147</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15316,22 +15316,22 @@
       <c r="L5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="O5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -15372,22 +15372,22 @@
       <c r="L6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -15428,20 +15428,20 @@
       <c r="L7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="P7" s="4" t="s">
         <v>152</v>
       </c>
       <c r="Q7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -15478,22 +15478,22 @@
       <c r="L8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -15534,22 +15534,22 @@
       <c r="L9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="N9" s="4" t="s">
         <v>156</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -15590,22 +15590,22 @@
       <c r="L10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>152</v>
       </c>
       <c r="Q10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -15646,22 +15646,22 @@
       <c r="L11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="S11" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -15702,22 +15702,22 @@
       <c r="L12" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>504</v>
       </c>
     </row>
@@ -15758,22 +15758,22 @@
       <c r="L13" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="O13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="Q13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="S13" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -15802,14 +15802,14 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -15850,22 +15850,22 @@
       <c r="L15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>158</v>
       </c>
       <c r="R15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S15" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -15904,20 +15904,20 @@
       <c r="L16" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>221</v>
       </c>
@@ -15954,26 +15954,26 @@
       <c r="L17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="N17" s="4" t="s">
         <v>161</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>235</v>
       </c>
@@ -16006,26 +16006,26 @@
       <c r="L18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="Q18" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>193</v>
       </c>
@@ -16056,14 +16056,14 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>213</v>
       </c>
@@ -16086,26 +16086,26 @@
       <c r="L20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="N20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="Q20" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>189</v>
       </c>
@@ -16142,26 +16142,26 @@
       <c r="L21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="N21" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="R21" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>183</v>
       </c>
@@ -16190,26 +16190,26 @@
       <c r="L22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>162</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>202</v>
       </c>
@@ -16244,22 +16244,22 @@
       <c r="L23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O23" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="P23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>209</v>
       </c>
@@ -16296,26 +16296,26 @@
       <c r="L24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>152</v>
       </c>
       <c r="P24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>197</v>
       </c>
@@ -16332,20 +16332,20 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="P25" s="4"/>
       <c r="Q25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="4" t="s">
+      <c r="S25" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>311</v>
       </c>
@@ -16362,16 +16362,16 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>237</v>
       </c>
@@ -16398,14 +16398,14 @@
       <c r="L27" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>218</v>
       </c>
@@ -16432,26 +16432,26 @@
       <c r="L28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="O28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>313</v>
       </c>
@@ -16468,16 +16468,16 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>216</v>
       </c>
@@ -16502,14 +16502,14 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>216</v>
       </c>
@@ -16536,26 +16536,26 @@
       <c r="L31" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="N31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="S31" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>317</v>
       </c>
@@ -16572,16 +16572,16 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3" t="s">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="3"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>232</v>
       </c>
@@ -16600,26 +16600,26 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>164</v>
       </c>
       <c r="R33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>204</v>
       </c>
@@ -16646,14 +16646,14 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
@@ -16672,16 +16672,16 @@
         <v>152</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="4" t="s">
+      <c r="R35" s="4"/>
+      <c r="S35" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>207</v>
       </c>
@@ -16718,26 +16718,26 @@
       <c r="L36" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="P36" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="P36" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="Q36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>257</v>
       </c>
@@ -16758,16 +16758,16 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4" t="s">
+      <c r="R37" s="4"/>
+      <c r="S37" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>229</v>
       </c>
@@ -16790,14 +16790,14 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="3"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>261</v>
       </c>
@@ -16816,18 +16816,18 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="4" t="s">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>277</v>
       </c>
@@ -16846,14 +16846,14 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>263</v>
       </c>
@@ -16880,20 +16880,20 @@
       <c r="L41" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N41" s="4"/>
+      <c r="N41" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="4" t="s">
-        <v>152</v>
-      </c>
+      <c r="Q41" s="4"/>
       <c r="R41" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>543</v>
       </c>
@@ -16910,18 +16910,18 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3"/>
+      <c r="O42" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O42" s="3"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="3"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>279</v>
       </c>
@@ -16940,14 +16940,14 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>222</v>
       </c>
@@ -16982,26 +16982,26 @@
       <c r="L44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="N44" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="O44" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="P44" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="R44" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>181</v>
       </c>
@@ -17026,14 +17026,14 @@
         <v>496</v>
       </c>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>181</v>
       </c>
@@ -17052,14 +17052,14 @@
       <c r="L46" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="3"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>211</v>
       </c>
@@ -17080,14 +17080,14 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>315</v>
       </c>
@@ -17104,16 +17104,16 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="3"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>309</v>
       </c>
@@ -17130,16 +17130,16 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="4"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>205</v>
       </c>
@@ -17158,18 +17158,18 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S50" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>319</v>
       </c>
@@ -17186,16 +17186,16 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="4" t="s">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>288</v>
       </c>
@@ -17214,14 +17214,14 @@
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="3"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>544</v>
       </c>
@@ -17240,14 +17240,14 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>281</v>
       </c>
@@ -17270,14 +17270,14 @@
       <c r="L54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" s="3"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>284</v>
       </c>
@@ -17296,14 +17296,14 @@
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>275</v>
       </c>
@@ -17322,14 +17322,14 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>301</v>
       </c>
@@ -17348,14 +17348,14 @@
       <c r="L57" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>286</v>
       </c>
@@ -17374,14 +17374,14 @@
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>294</v>
       </c>
@@ -17400,18 +17400,18 @@
         <v>152</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="Q59" s="4" t="s">
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="R59" s="4"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="4"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>268</v>
       </c>
@@ -17428,16 +17428,16 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="3" t="s">
+      <c r="R60" s="3"/>
+      <c r="S60" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>255</v>
       </c>
@@ -17454,16 +17454,16 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
-      <c r="P61" s="4" t="s">
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>290</v>
       </c>
@@ -17482,14 +17482,14 @@
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>546</v>
       </c>
@@ -17506,16 +17506,16 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
-      <c r="Q63" s="4" t="s">
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="R63" s="4"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="4"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>305</v>
       </c>
@@ -17532,16 +17532,16 @@
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="N64" s="3"/>
+      <c r="N64" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="3"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>303</v>
       </c>
@@ -17560,14 +17560,14 @@
       <c r="L65" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>271</v>
       </c>
@@ -17586,14 +17586,14 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>307</v>
       </c>
@@ -17610,16 +17610,16 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="4"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>297</v>
       </c>
@@ -17638,14 +17638,14 @@
         <v>520</v>
       </c>
       <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>299</v>
       </c>
@@ -17664,14 +17664,14 @@
         <v>520</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="4"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>292</v>
       </c>
@@ -17690,14 +17690,14 @@
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="3"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>272</v>
       </c>
@@ -17716,14 +17716,14 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="4"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>266</v>
       </c>
@@ -17742,29 +17742,29 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>557</v>
       </c>
